--- a/docs/mcode-r4/obf-RadiationProcedure.xlsx
+++ b/docs/mcode-r4/obf-RadiationProcedure.xlsx
@@ -995,7 +995,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Condition|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-DiagnosticReport|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Condition|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-DiagnosticReport|DocumentReference)
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication|Substance)
+    <t xml:space="preserve">Reference(Device|Medication|Substance)
 </t>
   </si>
   <si>

--- a/docs/mcode-r4/obf-RadiationProcedure.xlsx
+++ b/docs/mcode-r4/obf-RadiationProcedure.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="422">
   <si>
     <t>Path</t>
   </si>
@@ -152,7 +152,7 @@
     <t>obf-RadiationProcedure</t>
   </si>
   <si>
-    <t>A radiation oncology procedure. If the treatment is part of a larger course of treatment, the PartOf attribute should indicate that.</t>
+    <t>A radiation oncology procedure. The procedure might represent a complete course of treatment, or a single session that is part of a series of treatments. If the treatment is part of a larger course of treatment, the PartOf attribute should indicate that. If the procedure represents the entire course of therapy, the RadiationFractionsDelivered should indicate the number of sessions. If the procedure represents one session, then the RadiationFractionsDelivered would be 1, and the TotalRadiationDoseDelivered will be the same as the RadiationDosePerFraction.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -362,7 +362,7 @@
 </t>
   </si>
   <si>
-    <t>The total number of treatment sessions (fractions) administered during a course of radiation therapy therapy. A fraction is a portion of the total radiation dose, delivered as a series of treatments that make up the full course of radiotherapy. (source: LOINC)</t>
+    <t>The amount of radiation administered during a single session (fraction) of radiation therapy therapy.</t>
   </si>
   <si>
     <t>radiationfractionsdelivered</t>
@@ -372,6 +372,9 @@
 </t>
   </si>
   <si>
+    <t>Records the total number of treatment sessions (fractions) administered during the first course of therapy. Corresponds to LOINC 21950-2 'Number of radiation treatment' [sic].</t>
+  </si>
+  <si>
     <t>totalradiationdosedelivered</t>
   </si>
   <si>
@@ -1048,28 +1051,28 @@
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Orientation-extension}
+    <t>anatomicalorientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-AnatomicalOrientation-extension}
 </t>
   </si>
   <si>
-    <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
+    <t>AnatomicalOrientation of the body location, if needed to distinguish from a similar location in another orientation.
 The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -1085,11 +1088,11 @@
 * Specifying the direction from the landmark to the body location, and
 * Specifying the distance from the landmark to the body location.
 The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -2950,7 +2953,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3036,7 +3039,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>41</v>
@@ -3058,11 +3061,11 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3148,7 +3151,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>41</v>
@@ -3170,11 +3173,11 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3257,7 +3260,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3280,13 +3283,13 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3337,7 +3340,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3358,7 +3361,7 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>41</v>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3398,7 +3401,7 @@
         <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>98</v>
@@ -3442,7 +3445,7 @@
         <v>99</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>41</v>
@@ -3451,7 +3454,7 @@
         <v>100</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3472,7 +3475,7 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3509,13 +3512,13 @@
         <v>63</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3523,7 +3526,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>41</v>
@@ -3565,7 +3568,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3620,13 +3623,13 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3653,11 +3656,11 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3675,7 +3678,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3707,7 +3710,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3733,16 +3736,16 @@
         <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3791,7 +3794,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3823,7 +3826,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3846,19 +3849,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3907,7 +3910,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3925,21 +3928,21 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3962,13 +3965,13 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4019,7 +4022,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4037,10 +4040,10 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4051,7 +4054,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4077,13 +4080,13 @@
         <v>63</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4133,7 +4136,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4151,10 +4154,10 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -4165,11 +4168,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4188,13 +4191,13 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4245,7 +4248,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4263,10 +4266,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4277,11 +4280,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4300,16 +4303,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4359,7 +4362,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4377,10 +4380,10 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4391,7 +4394,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4417,13 +4420,13 @@
         <v>69</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4449,11 +4452,11 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4471,7 +4474,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>50</v>
@@ -4486,16 +4489,16 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4503,11 +4506,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4526,16 +4529,16 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4561,13 +4564,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4585,7 +4588,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4603,10 +4606,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4617,7 +4620,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4640,13 +4643,13 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4673,13 +4676,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4697,7 +4700,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4718,10 +4721,10 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4729,11 +4732,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4752,17 +4755,17 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4787,11 +4790,11 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4809,7 +4812,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4824,28 +4827,28 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4864,13 +4867,13 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4921,7 +4924,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>50</v>
@@ -4936,24 +4939,24 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4976,16 +4979,16 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5035,7 +5038,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5053,21 +5056,21 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5090,16 +5093,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5149,7 +5152,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5164,24 +5167,24 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5204,13 +5207,13 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5261,7 +5264,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5282,10 +5285,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5293,7 +5296,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5316,13 +5319,13 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5373,7 +5376,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5394,10 +5397,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5405,7 +5408,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5428,13 +5431,13 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5485,7 +5488,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5497,16 +5500,16 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5517,7 +5520,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5540,13 +5543,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5597,7 +5600,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5618,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5629,7 +5632,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5658,7 +5661,7 @@
         <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>98</v>
@@ -5711,7 +5714,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5732,7 +5735,7 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5743,11 +5746,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5769,16 +5772,16 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5827,7 +5830,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5859,7 +5862,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5882,17 +5885,17 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5917,13 +5920,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5941,7 +5944,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5959,21 +5962,21 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5996,17 +5999,17 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6055,7 +6058,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>50</v>
@@ -6073,21 +6076,21 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6110,17 +6113,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6169,7 +6172,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6190,7 +6193,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6224,17 +6227,17 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6283,7 +6286,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6304,10 +6307,10 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6338,16 +6341,16 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6373,13 +6376,13 @@
         <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>41</v>
@@ -6397,7 +6400,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6415,13 +6418,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6429,7 +6432,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6452,16 +6455,16 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6511,7 +6514,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6529,13 +6532,13 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6543,7 +6546,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6566,16 +6569,16 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6601,11 +6604,11 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6623,7 +6626,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6644,18 +6647,18 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6678,13 +6681,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6735,7 +6738,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6756,7 +6759,7 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6767,7 +6770,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6796,7 +6799,7 @@
         <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>98</v>
@@ -6840,7 +6843,7 @@
         <v>99</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>41</v>
@@ -6849,7 +6852,7 @@
         <v>100</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6870,7 +6873,7 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6881,10 +6884,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>41</v>
@@ -6906,11 +6909,11 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6961,7 +6964,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6993,10 +6996,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>41</v>
@@ -7018,11 +7021,11 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7073,7 +7076,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7105,10 +7108,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>41</v>
@@ -7130,11 +7133,11 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7185,7 +7188,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7217,7 +7220,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7240,19 +7243,19 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7301,7 +7304,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7322,18 +7325,18 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7356,19 +7359,19 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7417,7 +7420,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7438,18 +7441,18 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7472,16 +7475,16 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7507,13 +7510,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7531,7 +7534,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7552,7 +7555,7 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7563,7 +7566,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7586,16 +7589,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7645,7 +7648,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7666,7 +7669,7 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7700,16 +7703,16 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7735,13 +7738,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7759,7 +7762,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7780,7 +7783,7 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7791,7 +7794,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7814,17 +7817,17 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7873,7 +7876,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7894,7 +7897,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -7905,7 +7908,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7928,13 +7931,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7961,13 +7964,13 @@
         <v>41</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -7985,7 +7988,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8006,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8017,7 +8020,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8040,13 +8043,13 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8097,7 +8100,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8115,21 +8118,21 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8152,13 +8155,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8209,7 +8212,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8221,7 +8224,7 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8230,7 +8233,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8241,7 +8244,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8264,13 +8267,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8321,7 +8324,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8342,7 +8345,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8353,7 +8356,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8382,7 +8385,7 @@
         <v>96</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>98</v>
@@ -8435,7 +8438,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8456,7 +8459,7 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8467,11 +8470,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8493,16 +8496,16 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>98</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8551,7 +8554,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8583,7 +8586,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8606,13 +8609,13 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8639,13 +8642,13 @@
         <v>41</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>41</v>
@@ -8663,7 +8666,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8684,7 +8687,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8695,7 +8698,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8718,13 +8721,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8775,7 +8778,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>50</v>
@@ -8796,7 +8799,7 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8807,7 +8810,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8830,19 +8833,19 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -8891,7 +8894,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -8912,7 +8915,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -8923,7 +8926,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8946,16 +8949,16 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8981,13 +8984,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9005,7 +9008,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9026,7 +9029,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
